--- a/www/Price_of_ibuprofen_per_mg.xlsx
+++ b/www/Price_of_ibuprofen_per_mg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\MIDAS_data\Reckitt_midas_med_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBD471-07F0-4336-BDC7-2BD954BF03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDBF52-7061-41D7-A71A-347D79249E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sum of MG</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>rx_cost_per_epi</t>
+  </si>
+  <si>
+    <t>alternate_OTC_cost_per_episode</t>
   </si>
 </sst>
 </file>
@@ -383,18 +389,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -407,8 +417,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -422,8 +438,14 @@
         <f>C2/B2</f>
         <v>8.1610830043003725E-4</v>
       </c>
+      <c r="E2">
+        <v>5.5389555257330274</v>
+      </c>
+      <c r="F2">
+        <v>2.2587308691474512</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -437,8 +459,14 @@
         <f t="shared" ref="D3:D6" si="0">C3/B3</f>
         <v>4.8002874491405212E-4</v>
       </c>
+      <c r="E3">
+        <v>6.0738430786580935</v>
+      </c>
+      <c r="F3">
+        <v>1.7377231588805255</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,8 +480,14 @@
         <f t="shared" si="0"/>
         <v>1.771291242122287E-3</v>
       </c>
+      <c r="E4">
+        <v>7.6396815170988717</v>
+      </c>
+      <c r="F4">
+        <v>3.0566564752470367</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -467,8 +501,14 @@
         <f t="shared" si="0"/>
         <v>5.8780833057468969E-4</v>
       </c>
+      <c r="E5">
+        <v>2.5217263056226606</v>
+      </c>
+      <c r="F5">
+        <v>1.5460825573204129</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -481,6 +521,12 @@
       <c r="D6">
         <f t="shared" si="0"/>
         <v>1.4223454464305618E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.3552080642674227</v>
+      </c>
+      <c r="F6">
+        <v>2.1814064866266931</v>
       </c>
     </row>
   </sheetData>
